--- a/PROGRESS MAKMUR PERMAI.xlsx
+++ b/PROGRESS MAKMUR PERMAI.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -309,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -719,7 +731,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +805,7 @@
       <c r="F3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="15"/>
@@ -818,7 +830,7 @@
       <c r="F4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="15"/>
@@ -843,7 +855,7 @@
       <c r="F5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="15"/>
@@ -868,7 +880,7 @@
       <c r="F6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="15"/>
@@ -893,7 +905,7 @@
       <c r="F7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="15"/>
@@ -918,7 +930,7 @@
       <c r="F8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="15"/>
@@ -943,7 +955,7 @@
       <c r="F9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="15"/>
@@ -1014,10 +1026,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13" s="9"/>
     </row>

--- a/PROGRESS MAKMUR PERMAI.xlsx
+++ b/PROGRESS MAKMUR PERMAI.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mpe_pos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CE87E3-0494-4B32-8953-3CEB3D640239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -267,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,9 +405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -719,19 +722,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +770,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -805,7 +808,7 @@
       <c r="F3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="15"/>
@@ -830,7 +833,7 @@
       <c r="F4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="15"/>
@@ -855,7 +858,7 @@
       <c r="F5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="15"/>
@@ -880,7 +883,7 @@
       <c r="F6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="15"/>
@@ -905,7 +908,7 @@
       <c r="F7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="15"/>
@@ -930,7 +933,7 @@
       <c r="F8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="15"/>
@@ -955,7 +958,7 @@
       <c r="F9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="15"/>
@@ -1026,14 +1029,14 @@
         <v>28</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>78</v>
       </c>
       <c r="H13" s="15"/>
@@ -1163,11 +1166,13 @@
       <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="C21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="9"/>
     </row>
@@ -1178,11 +1183,21 @@
       <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="C22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="H22" s="15"/>
       <c r="I22" s="9"/>
     </row>
@@ -1321,11 +1336,21 @@
       <c r="B31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="C31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="H31" s="15"/>
       <c r="I31" s="9"/>
     </row>
@@ -1342,7 +1367,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1357,7 +1382,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1404,7 +1429,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="18" t="s">
         <v>80</v>
       </c>
     </row>

--- a/PROGRESS MAKMUR PERMAI.xlsx
+++ b/PROGRESS MAKMUR PERMAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mpe_pos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CE87E3-0494-4B32-8953-3CEB3D640239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1DCB29-F515-4AE1-A9A7-8CD80A282011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -267,7 +267,7 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Tinggal dirapikan tampilannya.</t>
+    <t>Tinggal dirapikan tampilannya. (done)</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -528,7 +531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -733,8 +736,8 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,11 +1139,21 @@
       <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="9"/>
     </row>
@@ -1325,7 +1338,9 @@
       <c r="F30" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="H30" s="15"/>
       <c r="I30" s="9"/>
     </row>
@@ -1376,13 +1391,19 @@
       <c r="B33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1410,8 +1431,12 @@
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="9"/>
@@ -1425,11 +1450,15 @@
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="21" t="s">
         <v>80</v>
       </c>
     </row>

--- a/PROGRESS MAKMUR PERMAI.xlsx
+++ b/PROGRESS MAKMUR PERMAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mpe_pos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1DCB29-F515-4AE1-A9A7-8CD80A282011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA1E1B3-40D6-44AA-A8E0-37788625FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -736,8 +736,8 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1266,9 @@
       <c r="B26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -1281,7 +1283,9 @@
       <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -1296,7 +1300,9 @@
       <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
